--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,66 +43,69 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>drop</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -115,160 +118,154 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>today</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>us</t>
+    <t>social</t>
   </si>
   <si>
     <t>san</t>
@@ -277,10 +274,10 @@
     <t>supermarket</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
   </si>
   <si>
     <t>food</t>
@@ -644,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +649,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,13 +710,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,19 +728,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +760,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +778,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +810,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -884,16 +881,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -905,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -913,13 +910,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +928,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +960,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8414634146341463</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M8">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1010,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6153846153846154</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8380281690140845</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1063,13 +1060,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5789473684210527</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,16 +1081,16 @@
         <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1105,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1113,13 +1110,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5098039215686274</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1131,19 +1128,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1160,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4697986577181208</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C12">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4612403100775194</v>
+        <v>0.475</v>
       </c>
       <c r="C13">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>238</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>0.8055555555555556</v>
@@ -1263,13 +1260,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.392156862745098</v>
+        <v>0.4563106796116505</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,22 +1275,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1310,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3898305084745763</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C15">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1355,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3818181818181818</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C16">
         <v>21</v>
@@ -1381,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1405,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1410,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3733333333333334</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1428,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1455,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1484,16 +1481,16 @@
         <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.71875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1510,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3544973544973545</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1560,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1605,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1610,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2987012987012987</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.6710182767624021</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1660,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.275</v>
+        <v>0.3</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,19 +1678,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.6458333333333334</v>
+        <v>0.6449086161879896</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1705,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1710,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2619047619047619</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,19 +1728,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.6060606060606061</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1763,37 +1760,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1474530831099196</v>
+        <v>0.2375</v>
       </c>
       <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>61</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D24">
-        <v>55</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>318</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1805,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1813,28 +1810,28 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0117096018735363</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D25">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="E25">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2954</v>
+        <v>314</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>0.5970588235294118</v>
@@ -1863,63 +1860,87 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008931419457735247</v>
+        <v>0.008322237017310254</v>
       </c>
       <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>128</v>
+      </c>
+      <c r="E26">
+        <v>0.8</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2979</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L26">
         <v>28</v>
       </c>
-      <c r="D26">
-        <v>94</v>
-      </c>
-      <c r="E26">
-        <v>0.7</v>
-      </c>
-      <c r="F26">
-        <v>0.3</v>
-      </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>3107</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L26">
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>20</v>
       </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>14</v>
-      </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.007994883274704189</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>99</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>3102</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.5600000000000001</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,21 +1952,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.55</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1957,21 +1978,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.5423728813559322</v>
+        <v>0.5491525423728814</v>
       </c>
       <c r="L29">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M29">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1983,21 +2004,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30">
         <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2009,21 +2030,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.5230125523012552</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="L31">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>125</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2035,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.5128205128205128</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2061,21 +2082,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5056179775280899</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2087,47 +2108,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.4634146341463415</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.4520547945205479</v>
+        <v>0.421875</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2139,21 +2160,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.4285714285714285</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2165,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.4222222222222222</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2191,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.390625</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2217,47 +2238,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.2186046511627907</v>
+        <v>0.1966426858513189</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>168</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.2105263157894737</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L40">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M40">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2269,21 +2290,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.2047244094488189</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M41">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2295,21 +2316,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.2</v>
+        <v>0.1488372093023256</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2321,47 +2342,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>76</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.1984732824427481</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>105</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.1802884615384615</v>
+        <v>0.1257861635220126</v>
       </c>
       <c r="L44">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2373,47 +2394,47 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>341</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.1666666666666667</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.1428571428571428</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2425,47 +2446,47 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.1234567901234568</v>
+        <v>0.1129753914988814</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N47">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>142</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.1209302325581395</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2477,73 +2498,73 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>189</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.1151515151515152</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>146</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K50">
+        <v>0.08888888888888889</v>
+      </c>
+      <c r="L50">
         <v>80</v>
       </c>
-      <c r="K50">
-        <v>0.1099887766554433</v>
-      </c>
-      <c r="L50">
-        <v>98</v>
-      </c>
       <c r="M50">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>793</v>
+        <v>820</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.09799554565701558</v>
+        <v>0.08796296296296297</v>
       </c>
       <c r="L51">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M51">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N51">
         <v>0.97</v>
@@ -2555,47 +2576,47 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>810</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.09230769230769231</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="L52">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>295</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.08936825885978428</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L53">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N53">
         <v>0.98</v>
@@ -2607,163 +2628,163 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>591</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.08646616541353383</v>
+        <v>0.07621247113163972</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="N54">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O54">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>243</v>
+        <v>800</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.08247422680412371</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M55">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>445</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.07175925925925926</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="L56">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="N56">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O56">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>802</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.06992022524636321</v>
+        <v>0.03842159916926272</v>
       </c>
       <c r="L57">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="M57">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="N57">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="O57">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>1982</v>
+        <v>926</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="K58">
-        <v>0.06818181818181818</v>
+        <v>0.03341985723556132</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>287</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K59">
-        <v>0.03841145833333334</v>
+        <v>0.02329974811083124</v>
       </c>
       <c r="L59">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="M59">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="N59">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="O59">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>2954</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2771,77 +2792,25 @@
         <v>89</v>
       </c>
       <c r="K60">
-        <v>0.02192066805845512</v>
+        <v>0.02158894645941278</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="O60">
-        <v>0.32</v>
+        <v>0.11</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K61">
-        <v>0.0208005042546486</v>
-      </c>
-      <c r="L61">
-        <v>66</v>
-      </c>
-      <c r="M61">
-        <v>94</v>
-      </c>
-      <c r="N61">
-        <v>0.7</v>
-      </c>
-      <c r="O61">
-        <v>0.3</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K62">
-        <v>0.01727115716753022</v>
-      </c>
-      <c r="L62">
-        <v>20</v>
-      </c>
-      <c r="M62">
-        <v>23</v>
-      </c>
-      <c r="N62">
-        <v>0.87</v>
-      </c>
-      <c r="O62">
-        <v>0.13</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,244 +43,280 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>prices</t>
@@ -641,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +685,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -760,13 +796,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8076923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,16 +817,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +846,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +946,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7431506849315068</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +996,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8235294117647058</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1046,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6333333333333333</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8203125</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,49 +1096,49 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5897435897435898</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>0.8380281690140845</v>
+      </c>
+      <c r="L10">
+        <v>119</v>
+      </c>
+      <c r="M10">
+        <v>119</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>23</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>16</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L10">
-        <v>67</v>
-      </c>
-      <c r="M10">
-        <v>67</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1146,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5641025641025641</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8166666666666667</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1196,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5405405405405406</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.475</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1264,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8125</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1296,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4563106796116505</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C14">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,22 +1311,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8028169014084507</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1346,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4161073825503356</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1396,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4117647058823529</v>
+        <v>0.4457364341085271</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>230</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1446,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3728813559322034</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1464,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3559322033898305</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1514,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1546,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3466666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>45</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7375</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1596,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.6914893617021277</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1646,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3116883116883117</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,37 +1696,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6449086161879896</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L22">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="M22">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>136</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1746,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.257936507936508</v>
+        <v>0.3</v>
       </c>
       <c r="C23">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,19 +1764,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>187</v>
+        <v>56</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.6176470588235294</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1752,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,13 +1796,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2375</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1778,19 +1814,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>61</v>
+        <v>183</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6060606060606061</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1802,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1846,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1581769436997319</v>
+        <v>0.1742627345844504</v>
       </c>
       <c r="C25">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,19 +1864,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K25">
-        <v>0.5970588235294118</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L25">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1852,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,87 +1896,63 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.008322237017310254</v>
+        <v>0.006395153147088523</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="E26">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2979</v>
+        <v>2952</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.6240208877284595</v>
+      </c>
+      <c r="L26">
+        <v>239</v>
+      </c>
+      <c r="M26">
+        <v>239</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L26">
-        <v>28</v>
-      </c>
-      <c r="M26">
-        <v>28</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.007994883274704189</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>99</v>
-      </c>
-      <c r="E27">
-        <v>0.75</v>
-      </c>
-      <c r="F27">
-        <v>0.25</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>3102</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K27">
-        <v>0.5730337078651685</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1952,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.5555555555555556</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29">
-        <v>0.5491525423728814</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L29">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2004,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.5617647058823529</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2030,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5348837209302325</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L31">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2056,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5277777777777778</v>
+        <v>0.53125</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2082,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5230125523012552</v>
+        <v>0.525</v>
       </c>
       <c r="L33">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2108,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>114</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5068493150684932</v>
+        <v>0.5076923076923077</v>
       </c>
       <c r="L34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2134,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.421875</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2160,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.4153846153846154</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2186,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.4142857142857143</v>
+        <v>0.4937238493723849</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2212,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.2125984251968504</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2238,47 +2250,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.1966426858513189</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L39">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>335</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.1730769230769231</v>
+        <v>0.4</v>
       </c>
       <c r="L40">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2290,21 +2302,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.1679389312977099</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2316,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.1488372093023256</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L42">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2342,73 +2354,73 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>183</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.1448598130841121</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>183</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.1257861635220126</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="L44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44">
         <v>20</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>139</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.1165644171779141</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2420,21 +2432,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>144</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.1151515151515152</v>
+        <v>0.1778846153846154</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2446,21 +2458,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>146</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.1129753914988814</v>
+        <v>0.1746411483253588</v>
       </c>
       <c r="L47">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="M47">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2472,345 +2484,657 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>793</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.1104651162790698</v>
+        <v>0.1737089201877934</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>153</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.1042944785276074</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L49">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>292</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.08888888888888889</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="L50">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>820</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.08796296296296297</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L51">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>591</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.08733624454148471</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M52">
         <v>21</v>
       </c>
       <c r="N52">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>209</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.08247422680412371</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M53">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>445</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.07621247113163972</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="L54">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N54">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>800</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.06862745098039216</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="L55">
+        <v>20</v>
+      </c>
+      <c r="M55">
         <v>21</v>
       </c>
-      <c r="M55">
-        <v>23</v>
-      </c>
       <c r="N55">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="O55">
-        <v>0.08999999999999997</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>285</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.06707317073170732</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L56">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="N56">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1989</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.03842159916926272</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="L57">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="N57">
-        <v>0.88</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0.12</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>926</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.03341985723556132</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L58">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M58">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="N58">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.2</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>2979</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.02329974811083124</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L59">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="M59">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="N59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>3102</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>0.02158894645941278</v>
+        <v>0.09242761692650334</v>
       </c>
       <c r="L60">
+        <v>83</v>
+      </c>
+      <c r="M60">
+        <v>86</v>
+      </c>
+      <c r="N60">
+        <v>0.97</v>
+      </c>
+      <c r="O60">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K61">
+        <v>0.08796296296296297</v>
+      </c>
+      <c r="L61">
+        <v>76</v>
+      </c>
+      <c r="M61">
+        <v>79</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>20</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K63">
+        <v>0.08493664946034725</v>
+      </c>
+      <c r="L63">
+        <v>181</v>
+      </c>
+      <c r="M63">
+        <v>193</v>
+      </c>
+      <c r="N63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L64">
+        <v>54</v>
+      </c>
+      <c r="M64">
+        <v>56</v>
+      </c>
+      <c r="N64">
+        <v>0.96</v>
+      </c>
+      <c r="O64">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65">
+        <v>0.08230452674897119</v>
+      </c>
+      <c r="L65">
+        <v>40</v>
+      </c>
+      <c r="M65">
+        <v>40</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K66">
+        <v>0.07885304659498207</v>
+      </c>
+      <c r="L66">
+        <v>22</v>
+      </c>
+      <c r="M66">
+        <v>24</v>
+      </c>
+      <c r="N66">
+        <v>0.92</v>
+      </c>
+      <c r="O66">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K67">
+        <v>0.07163323782234957</v>
+      </c>
+      <c r="L67">
         <v>25</v>
       </c>
-      <c r="M60">
-        <v>28</v>
-      </c>
-      <c r="N60">
+      <c r="M67">
+        <v>25</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K68">
+        <v>0.04404145077720207</v>
+      </c>
+      <c r="L68">
+        <v>136</v>
+      </c>
+      <c r="M68">
+        <v>155</v>
+      </c>
+      <c r="N68">
+        <v>0.88</v>
+      </c>
+      <c r="O68">
+        <v>0.12</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K69">
+        <v>0.04361370716510903</v>
+      </c>
+      <c r="L69">
+        <v>42</v>
+      </c>
+      <c r="M69">
+        <v>47</v>
+      </c>
+      <c r="N69">
         <v>0.89</v>
       </c>
-      <c r="O60">
+      <c r="O69">
         <v>0.11</v>
       </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1133</v>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70">
+        <v>0.03696857670979668</v>
+      </c>
+      <c r="L70">
+        <v>20</v>
+      </c>
+      <c r="M70">
+        <v>24</v>
+      </c>
+      <c r="N70">
+        <v>0.83</v>
+      </c>
+      <c r="O70">
+        <v>0.17</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K71">
+        <v>0.02858040201005025</v>
+      </c>
+      <c r="L71">
+        <v>91</v>
+      </c>
+      <c r="M71">
+        <v>108</v>
+      </c>
+      <c r="N71">
+        <v>0.84</v>
+      </c>
+      <c r="O71">
+        <v>0.16</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K72">
+        <v>0.02162629757785467</v>
+      </c>
+      <c r="L72">
+        <v>25</v>
+      </c>
+      <c r="M72">
+        <v>30</v>
+      </c>
+      <c r="N72">
+        <v>0.83</v>
+      </c>
+      <c r="O72">
+        <v>0.17</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1131</v>
       </c>
     </row>
   </sheetData>
